--- a/public/Excel/fields.xlsx
+++ b/public/Excel/fields.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAB991-E249-4CE1-BA3A-DE47733405F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3792" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$1:$C$8</definedName>
@@ -19,15 +18,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - Table 3 (2)" description="Connection to the 'Table 3 (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - Table 3 (2)" description="Connection to the 'Table 3 (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;Table 3 (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [Table 3 (2)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -56,9 +55,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>field_id</t>
-  </si>
-  <si>
     <t>web</t>
   </si>
   <si>
@@ -79,11 +75,14 @@
   <si>
     <t>empeded system</t>
   </si>
+  <si>
+    <t>sub_field_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,13 +131,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="8">
     <queryTableFields count="3">
       <queryTableField id="1" name="course number" tableColumnId="1"/>
       <queryTableField id="2" name="Course name" tableColumnId="2"/>
@@ -152,12 +154,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_3__2" displayName="Table_3__2" ref="A1:C8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_3__2" displayName="Table_3__2" ref="A1:C8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" uniqueName="2" name="description" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" uniqueName="3" name="field_id" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="description" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="sub_field_name" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -206,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +241,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,11 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,12 +507,12 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -484,68 +520,59 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -554,28 +581,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/Excel/fields.xlsx
+++ b/public/Excel/fields.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAB991-E249-4CE1-BA3A-DE47733405F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5706D9-C7BF-49AA-8AF0-9412D2817F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3792" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$1:$C$8</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$1:$D$8</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>sub_field_name</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>images/aboSalah.jpg</t>
   </si>
 </sst>
 </file>
@@ -140,9 +146,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="9">
+    <queryTableFields count="4">
       <queryTableField id="1" name="course number" tableColumnId="1"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="4"/>
       <queryTableField id="2" name="Course name" tableColumnId="2"/>
       <queryTableField id="3" name="number of hours" tableColumnId="3"/>
     </queryTableFields>
@@ -154,10 +161,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_3__2" displayName="Table_3__2" ref="A1:C8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_3__2" displayName="Table_3__2" ref="A1:D8" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C7CE36E9-0E93-4EB5-AA22-C51AA6F2B4B6}" uniqueName="4" name="img" queryTableFieldId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="description" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="sub_field_name" queryTableFieldId="3"/>
   </tableColumns>
@@ -166,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,9 +214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,26 +249,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,26 +284,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,92 +460,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/public/Excel/fields.xlsx
+++ b/public/Excel/fields.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5706D9-C7BF-49AA-8AF0-9412D2817F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A2525-2FC1-41DC-B002-925DC3D7C64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$1:$D$8</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -26,73 +26,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Software Analysis and Verification</t>
-  </si>
-  <si>
-    <t>Theory of Computation</t>
-  </si>
-  <si>
-    <t>Scientific &amp; Technical Reporting</t>
-  </si>
-  <si>
-    <t>The User Interface Design</t>
-  </si>
-  <si>
-    <t>Graphic Programming</t>
-  </si>
-  <si>
-    <t>Web Software Engineering</t>
-  </si>
-  <si>
-    <t>Management of Risk and Quality</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>empeded system</t>
-  </si>
-  <si>
     <t>sub_field_name</t>
   </si>
   <si>
     <t>img</t>
   </si>
   <si>
-    <t>images/aboSalah.jpg</t>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Mobile Development</t>
+  </si>
+  <si>
+    <t>Cloud Engineering</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Embeded Systems</t>
+  </si>
+  <si>
+    <t>Artificial intelligence</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Game Programming</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Aims to make and maintain websites.</t>
+  </si>
+  <si>
+    <t>Aims to make and maintain mobile applications.</t>
+  </si>
+  <si>
+    <t>Aims for designing and managing cloud-based systems for organizations.</t>
+  </si>
+  <si>
+    <t>Aims for designing the system prototype design</t>
+  </si>
+  <si>
+    <t>Aims for understanding the networking concepts and how to deal with it</t>
+  </si>
+  <si>
+    <t>Aims for protecting and securing systems from attacks and looking for vulnerabilities</t>
+  </si>
+  <si>
+    <t>Aims for combination of computer hardware and software designed for a specific function.</t>
+  </si>
+  <si>
+    <t>Aims for making automated systems that doesn't need any human interaction</t>
+  </si>
+  <si>
+    <t>Aims for using testing techniques to make sure that the system is operational</t>
+  </si>
+  <si>
+    <t>Aims for Understanding Programing languages with its libraries</t>
+  </si>
+  <si>
+    <t>Aims to collects large amounts of data using analytical, statistical, and programmable skills.</t>
+  </si>
+  <si>
+    <t>Aims to understand the game industry field and how to develop games</t>
+  </si>
+  <si>
+    <t>Aims to understand how to design database</t>
+  </si>
+  <si>
+    <t>Additional Courses for improving the basic knowledge of business programing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CCBPbKAhWyRUoktP6Xvijzfp64ZHECy0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cAYaJF3sCWsQSyYKmaVwauL0DU_Tvx2U/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/152EMA9KFVk7rNnrhvrHIT0vSJEBnbmMd/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zfa-S4aQNHVdgZaLYaDNsveb7idvnrTC/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eBJhJJRMsfbKfVarrw5sGfsvklPxnZ1E/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lx2lPl1VYNI26DstOGhR8v2ACoOWqiGE/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wKqEPM3fWaaTba9bG84iIZK54CCsH1tN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B1igfbwH09M6CZUzIOwU6yaGDITjAnr5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/164CudVHOxN11J2JVxop-ChaaxFqHH6OF/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PiPa5INBJyM5CFtVAtiH2NBWBgDtOly0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q-ehbNMs4xktBs7vT6N7H0yB6o-RNiad/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kGTUIZZBNb32Rly9-kO-7lwm5UJbHGE9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17tU3syQYc6HwsrCIm1WP3LGyakOFVH7r/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_a0zb9vmC2ejayZUq47GoEZKzOrlX5Fo/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,13 +204,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -161,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_3__2" displayName="Table_3__2" ref="A1:D8" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_3__2" displayName="Table_3__2" ref="A1:D15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="name" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{C7CE36E9-0E93-4EB5-AA22-C51AA6F2B4B6}" uniqueName="4" name="img" queryTableFieldId="8"/>
@@ -460,18 +552,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="84.77734375" customWidth="1"/>
+    <col min="3" max="3" width="77.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,87 +571,192 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{DBBAF4C6-F75E-4F32-A9A6-F087FBE3F80B}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{81D043D4-A8FA-440E-A0B3-0D64644F8AB9}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{EE79664E-BDDD-4CB9-B744-CA750E576E42}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{72D70977-FE0A-4EF9-A59E-2EC02D061F14}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{E7B6BB07-2057-41D5-901A-0EEC3DEEE075}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{2A20EA63-9F14-42EE-A6B6-4E850C99AA79}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{95E97915-D35B-42B8-9282-9A3A1FAEDFC5}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{91713B35-24F5-4D55-B9F0-E390F219A79C}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{24EB3124-4BB3-410A-BD47-BBD8DA1900F7}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{2B5E0C3F-6516-4F97-B0A0-1DC50265ADCA}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{F977213B-68CD-4403-A10C-C4D846D2FFB4}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{DB9FE749-1217-4DCA-9EB8-B69C5E797AA5}"/>
+    <hyperlink ref="B3" r:id="rId13" xr:uid="{30D94BD7-A9C6-4D88-9F95-EDD08B2AA7CC}"/>
+    <hyperlink ref="B2" r:id="rId14" xr:uid="{6731BB26-8DB7-453E-B34E-DC358D81FB8F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>